--- a/Auto/hello.xlsx
+++ b/Auto/hello.xlsx
@@ -14,189 +14,591 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
-  <si>
-    <t>Audi A1 Ambition 1.6TDI*Leder*130TKM.</t>
-  </si>
-  <si>
-    <t>2.600 евро</t>
-  </si>
-  <si>
-    <t>06/2012</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="195">
+  <si>
+    <t>Audi A3 2.0 TDI Ambition Cabriolet Navi Xenon</t>
+  </si>
+  <si>
+    <t>4.990 евро</t>
+  </si>
+  <si>
+    <t>05/2010</t>
+  </si>
+  <si>
+    <t>120.623</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A1</t>
+  </si>
+  <si>
+    <t>4.600 евро</t>
+  </si>
+  <si>
+    <t>02/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.971 </t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 Sportback 2.0 FSI S line Sportpaket</t>
+  </si>
+  <si>
+    <t>5.990 евро</t>
+  </si>
+  <si>
+    <t>11/2006</t>
+  </si>
+  <si>
+    <t>150.818</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 2.0 TDI S line Sportpaket plus</t>
+  </si>
+  <si>
+    <t>4.500 евро</t>
+  </si>
+  <si>
+    <t>04/2012</t>
+  </si>
+  <si>
+    <t>155.352</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 1.8 TFSI Ambition quattro*S line*Shz*Leder*Kl</t>
+  </si>
+  <si>
+    <t>5.490 евро</t>
+  </si>
+  <si>
+    <t>12/2011</t>
+  </si>
+  <si>
+    <t>160.913</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A4 Lim. 3.0 TDI quattro 1st hand</t>
+  </si>
+  <si>
+    <t>3.600 евро</t>
+  </si>
+  <si>
+    <t>05/2006</t>
+  </si>
+  <si>
+    <t>136.798</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A6 Lim. 3.2 FSI ( S Line ) 137.000 Km - Schalter</t>
+  </si>
+  <si>
+    <t>3.550 евро</t>
+  </si>
+  <si>
+    <t>07/2006</t>
+  </si>
+  <si>
+    <t>137.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A1 TFSI Ambition</t>
+  </si>
+  <si>
+    <t>1.250 евро</t>
+  </si>
+  <si>
+    <t>04/2011</t>
+  </si>
+  <si>
+    <t>144.907</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 2.0 FSI S line Sportpaket plus</t>
+  </si>
+  <si>
+    <t>2.500 евро</t>
+  </si>
+  <si>
+    <t>132.624</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 1.8 TFSI S line Sportpaket plus</t>
+  </si>
+  <si>
+    <t>4.950 евро</t>
+  </si>
+  <si>
+    <t>12/2009</t>
+  </si>
+  <si>
+    <t>166.835</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 1.4 TFSI S line Sportpaket plus Xenon</t>
+  </si>
+  <si>
+    <t>5.850 евро</t>
+  </si>
+  <si>
+    <t>04/2008</t>
+  </si>
+  <si>
+    <t>168.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A4 2.0 T FSI*Navi*S-LINE*Webasto*Bose*</t>
+  </si>
+  <si>
+    <t>4.999 евро</t>
+  </si>
+  <si>
+    <t>03/2006</t>
+  </si>
+  <si>
+    <t>157.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 1.8 TFSI S line Automatik/TÜV/INSPEKTION NEU!</t>
+  </si>
+  <si>
+    <t>5.999 евро</t>
+  </si>
+  <si>
+    <t>07/2007</t>
+  </si>
+  <si>
+    <t>178.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A4 Lim. Ambiente*MOTORSCHADEN!!!*KEINE E-MAIL*</t>
+  </si>
+  <si>
+    <t>3.999 евро</t>
+  </si>
+  <si>
+    <t>06/2008</t>
+  </si>
+  <si>
+    <t>180.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A3 1.4 TFSI S line Sportpaket plus,8 fach,1 Hand</t>
+  </si>
+  <si>
+    <t>5.690 евро</t>
+  </si>
+  <si>
+    <t>02/2010</t>
+  </si>
+  <si>
+    <t>192.234</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A4 Cabriolet 1.8 T      ERST   126 660 KM   !!!</t>
+  </si>
+  <si>
+    <t>1.966 евро</t>
+  </si>
+  <si>
+    <t>03/2003</t>
+  </si>
+  <si>
+    <t>126.676</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A1 1.6 TDI Ambition</t>
+  </si>
+  <si>
+    <t>5.000 евро</t>
+  </si>
+  <si>
+    <t>07/2010</t>
   </si>
   <si>
     <t>130.000</t>
   </si>
   <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=336701263&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 Sportback 1.4 TFSI S line Sportpaket plus</t>
-  </si>
-  <si>
-    <t>1.750 евро</t>
-  </si>
-  <si>
-    <t>11/2011</t>
-  </si>
-  <si>
-    <t>189.000</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344247431&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 2.0 TDI S line Sportpaket plus</t>
-  </si>
-  <si>
-    <t>1.500 евро</t>
-  </si>
-  <si>
-    <t>03/2004</t>
-  </si>
-  <si>
-    <t>200.000</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=329281968&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 2.0 TDI S Line Sportpaket plus</t>
-  </si>
-  <si>
-    <t>2.499 евро</t>
-  </si>
-  <si>
-    <t>10/2004</t>
-  </si>
-  <si>
-    <t>173.980</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345129771&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audi A3 2.0 FSI Sportback </t>
-  </si>
-  <si>
-    <t>2.200 евро</t>
-  </si>
-  <si>
-    <t>11/2005</t>
-  </si>
-  <si>
-    <t>199.999</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342518459&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 1.6 FSI S line Sportpaket plus</t>
-  </si>
-  <si>
-    <t>10/2005</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344380238&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A4 1.8 T S-Line Klimaaut. Teilleder 16"ALU</t>
-  </si>
-  <si>
-    <t>2.999 евро</t>
-  </si>
-  <si>
-    <t>06/2001</t>
-  </si>
-  <si>
-    <t>175.000</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342835174&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 2.0 FSI Ambiente Sportback</t>
-  </si>
-  <si>
-    <t>02/2004</t>
-  </si>
-  <si>
-    <t>191.000</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345835574&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 1.6 tiptronic S line Sport. Sportback S line.</t>
-  </si>
-  <si>
-    <t>1.400 евро</t>
-  </si>
-  <si>
-    <t>05/2004</t>
-  </si>
-  <si>
-    <t>193.660</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345786084&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audi A3 1.6L TÜV bis März 23 </t>
-  </si>
-  <si>
-    <t>2.500 евро</t>
-  </si>
-  <si>
-    <t>10/2001</t>
-  </si>
-  <si>
-    <t>178.895</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345458605&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A6 C5 Avant S line</t>
-  </si>
-  <si>
-    <t>11/2003</t>
-  </si>
-  <si>
-    <t>198.500</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345667139&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audi A2 1.6 FSI S-Line Plus </t>
-  </si>
-  <si>
-    <t>2.650 евро</t>
-  </si>
-  <si>
-    <t>07/2002</t>
-  </si>
-  <si>
-    <t>194.500</t>
-  </si>
-  <si>
-    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=343630076&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2013-12-31&amp;maxMileage=200000&amp;maxPrice=3000&amp;minFirstRegistrationDate=2000-01-01&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;ref=srp&amp;refId=9304704f-45d6-64c8-fbf1-3dbe9597f523&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;fnai=next&amp;searchId=e8eaa5b0-552b-8d9d-bda0-76744a7b1cbf</t>
-  </si>
-  <si>
-    <t>Audi A3 1.6 FSI Attraction</t>
-  </si>
-  <si>
-    <t>12 900 PLN</t>
-  </si>
-  <si>
-    <t>2004 год</t>
-  </si>
-  <si>
-    <t>190 000 км</t>
-  </si>
-  <si>
-    <t>https://www.otomoto.pl/oferta/audi-a3-s-line-niemcy-1-6-6biegow-alu-czarny-sufit-kozak-okazja-ID6EG9xG.html</t>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>Audi A1 Ambition S-tronic*Klimaautom.*Navi*T-Leder*</t>
+  </si>
+  <si>
+    <t>190.000</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=d60f39d8-38e2-c3c1-bf53-93d567c6b3d1</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=8900103e-93ef-6e06-c3d9-23edc482d2d5</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=82be407a-b650-a7f2-8e7f-50efaa01e25f</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=7094c6c8-adef-c556-fb4f-91c9acd0cb66</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=9f18d537-bd48-3957-df2b-aae05407425e</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=9d37050a-f1a4-ae6b-b068-a33d1bf95f49</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=345950111&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=prev&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348745381&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348572760&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=340917794&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348545214&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=344875960&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=341845120&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346538755&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347717765&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348878363&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347790582&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=342680317&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=348844014&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346779356&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346887732&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=346281173&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347770372&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
+  </si>
+  <si>
+    <t>https://suchen.mobile.de/fahrzeuge/details.html?id=347913205&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;grossPrice=true&amp;interiorTypes=PARTIAL_LEATHER&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;maxFirstRegistrationDate=2015-12-31&amp;maxMileage=2000000&amp;maxPrice=6000&amp;minMileage=1&amp;minPrice=150&amp;pageNumber=1&amp;scopeId=C&amp;sfmr=false&amp;sortOption.sortBy=relevance&amp;ref=srp&amp;fnai=next&amp;searchId=98b0e3f1-d322-cd4d-4365-88ce19a93e23</t>
   </si>
 </sst>
 </file>
@@ -541,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,135 +1039,2056 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D30" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="B31" t="s">
         <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D82" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>37</v>
+      </c>
+      <c r="D98" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" t="s">
+        <v>41</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C100" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" t="s">
+        <v>47</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>71</v>
+      </c>
+      <c r="D105" t="s">
+        <v>72</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" t="s">
+        <v>77</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>79</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" t="s">
+        <v>37</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" t="s">
+        <v>41</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" t="s">
+        <v>47</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" t="s">
+        <v>52</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" t="s">
+        <v>56</v>
+      </c>
+      <c r="D120" t="s">
+        <v>57</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>59</v>
+      </c>
+      <c r="B121" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="s">
+        <v>66</v>
+      </c>
+      <c r="D122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C123" t="s">
+        <v>71</v>
+      </c>
+      <c r="D123" t="s">
+        <v>72</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" t="s">
+        <v>81</v>
+      </c>
+      <c r="D125" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" t="s">
+        <v>55</v>
+      </c>
+      <c r="C126" t="s">
+        <v>22</v>
+      </c>
+      <c r="D126" t="s">
+        <v>85</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -783,6 +3106,119 @@
     <hyperlink ref="E11" r:id="rId11"/>
     <hyperlink ref="E12" r:id="rId12"/>
     <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E22" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E24" r:id="rId24"/>
+    <hyperlink ref="E25" r:id="rId25"/>
+    <hyperlink ref="E26" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId28"/>
+    <hyperlink ref="E29" r:id="rId29"/>
+    <hyperlink ref="E30" r:id="rId30"/>
+    <hyperlink ref="E31" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
+    <hyperlink ref="E33" r:id="rId33"/>
+    <hyperlink ref="E34" r:id="rId34"/>
+    <hyperlink ref="E35" r:id="rId35"/>
+    <hyperlink ref="E36" r:id="rId36"/>
+    <hyperlink ref="E37" r:id="rId37"/>
+    <hyperlink ref="E38" r:id="rId38"/>
+    <hyperlink ref="E39" r:id="rId39"/>
+    <hyperlink ref="E40" r:id="rId40"/>
+    <hyperlink ref="E41" r:id="rId41"/>
+    <hyperlink ref="E42" r:id="rId42"/>
+    <hyperlink ref="E43" r:id="rId43"/>
+    <hyperlink ref="E44" r:id="rId44"/>
+    <hyperlink ref="E45" r:id="rId45"/>
+    <hyperlink ref="E46" r:id="rId46"/>
+    <hyperlink ref="E47" r:id="rId47"/>
+    <hyperlink ref="E48" r:id="rId48"/>
+    <hyperlink ref="E49" r:id="rId49"/>
+    <hyperlink ref="E50" r:id="rId50"/>
+    <hyperlink ref="E51" r:id="rId51"/>
+    <hyperlink ref="E52" r:id="rId52"/>
+    <hyperlink ref="E53" r:id="rId53"/>
+    <hyperlink ref="E54" r:id="rId54"/>
+    <hyperlink ref="E55" r:id="rId55"/>
+    <hyperlink ref="E56" r:id="rId56"/>
+    <hyperlink ref="E57" r:id="rId57"/>
+    <hyperlink ref="E58" r:id="rId58"/>
+    <hyperlink ref="E59" r:id="rId59"/>
+    <hyperlink ref="E60" r:id="rId60"/>
+    <hyperlink ref="E61" r:id="rId61"/>
+    <hyperlink ref="E62" r:id="rId62"/>
+    <hyperlink ref="E63" r:id="rId63"/>
+    <hyperlink ref="E64" r:id="rId64"/>
+    <hyperlink ref="E65" r:id="rId65"/>
+    <hyperlink ref="E66" r:id="rId66"/>
+    <hyperlink ref="E67" r:id="rId67"/>
+    <hyperlink ref="E68" r:id="rId68"/>
+    <hyperlink ref="E69" r:id="rId69"/>
+    <hyperlink ref="E70" r:id="rId70"/>
+    <hyperlink ref="E71" r:id="rId71"/>
+    <hyperlink ref="E72" r:id="rId72"/>
+    <hyperlink ref="E73" r:id="rId73"/>
+    <hyperlink ref="E74" r:id="rId74"/>
+    <hyperlink ref="E75" r:id="rId75"/>
+    <hyperlink ref="E76" r:id="rId76"/>
+    <hyperlink ref="E77" r:id="rId77"/>
+    <hyperlink ref="E78" r:id="rId78"/>
+    <hyperlink ref="E79" r:id="rId79"/>
+    <hyperlink ref="E80" r:id="rId80"/>
+    <hyperlink ref="E81" r:id="rId81"/>
+    <hyperlink ref="E82" r:id="rId82"/>
+    <hyperlink ref="E83" r:id="rId83"/>
+    <hyperlink ref="E84" r:id="rId84"/>
+    <hyperlink ref="E85" r:id="rId85"/>
+    <hyperlink ref="E86" r:id="rId86"/>
+    <hyperlink ref="E87" r:id="rId87"/>
+    <hyperlink ref="E88" r:id="rId88"/>
+    <hyperlink ref="E89" r:id="rId89"/>
+    <hyperlink ref="E90" r:id="rId90"/>
+    <hyperlink ref="E91" r:id="rId91"/>
+    <hyperlink ref="E92" r:id="rId92"/>
+    <hyperlink ref="E93" r:id="rId93"/>
+    <hyperlink ref="E94" r:id="rId94"/>
+    <hyperlink ref="E95" r:id="rId95"/>
+    <hyperlink ref="E96" r:id="rId96"/>
+    <hyperlink ref="E97" r:id="rId97"/>
+    <hyperlink ref="E98" r:id="rId98"/>
+    <hyperlink ref="E99" r:id="rId99"/>
+    <hyperlink ref="E100" r:id="rId100"/>
+    <hyperlink ref="E101" r:id="rId101"/>
+    <hyperlink ref="E102" r:id="rId102"/>
+    <hyperlink ref="E103" r:id="rId103"/>
+    <hyperlink ref="E104" r:id="rId104"/>
+    <hyperlink ref="E105" r:id="rId105"/>
+    <hyperlink ref="E106" r:id="rId106"/>
+    <hyperlink ref="E107" r:id="rId107"/>
+    <hyperlink ref="E108" r:id="rId108"/>
+    <hyperlink ref="E109" r:id="rId109"/>
+    <hyperlink ref="E110" r:id="rId110"/>
+    <hyperlink ref="E111" r:id="rId111"/>
+    <hyperlink ref="E112" r:id="rId112"/>
+    <hyperlink ref="E113" r:id="rId113"/>
+    <hyperlink ref="E114" r:id="rId114"/>
+    <hyperlink ref="E115" r:id="rId115"/>
+    <hyperlink ref="E116" r:id="rId116"/>
+    <hyperlink ref="E117" r:id="rId117"/>
+    <hyperlink ref="E118" r:id="rId118"/>
+    <hyperlink ref="E119" r:id="rId119"/>
+    <hyperlink ref="E120" r:id="rId120"/>
+    <hyperlink ref="E121" r:id="rId121"/>
+    <hyperlink ref="E122" r:id="rId122"/>
+    <hyperlink ref="E123" r:id="rId123"/>
+    <hyperlink ref="E124" r:id="rId124"/>
+    <hyperlink ref="E125" r:id="rId125"/>
+    <hyperlink ref="E126" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
